--- a/src/test/fileExcel/TestingResult.xlsx
+++ b/src/test/fileExcel/TestingResult.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="785" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="6" tabRatio="785" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" r:id="rId1" sheetId="15"/>
     <sheet name="Summary" r:id="rId2" sheetId="1"/>
     <sheet name="TestCase" r:id="rId3" sheetId="16"/>
     <sheet name="Demo" r:id="rId4" sheetId="17"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="18"/>
-    <sheet name="Legend" r:id="rId6" sheetId="11" state="hidden"/>
+    <sheet name="Sheet_1" r:id="rId5" sheetId="19"/>
+    <sheet name="Sheet_2" r:id="rId6" sheetId="18"/>
+    <sheet name="Sheet_3" r:id="rId7" sheetId="20"/>
+    <sheet name="Legend" r:id="rId8" sheetId="11" state="hidden"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">'Revision History'!$A$1:$H$23</definedName>
+    <definedName localSheetId="4" name="Vuong.Dang">#REF!</definedName>
     <definedName name="Vuong.Dang">#REF!</definedName>
     <definedName hidden="1" localSheetId="0" name="Z_DBDC2AA3_6B1B_4C51_93E7_00274D811A78_.wvu.PrintArea">'Revision History'!$A$1:$H$23</definedName>
   </definedNames>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="126">
   <si>
     <t>Test Metrics</t>
   </si>
@@ -180,9 +183,6 @@
 4. Click on: "Login" button</t>
   </si>
   <si>
-    <t>https://ft.captionconnect.com/#settingpage</t>
-  </si>
-  <si>
     <t>Should see result: "RecordName" is "Edit Profile"</t>
   </si>
   <si>
@@ -191,42 +191,60 @@
 3. Cick on: "Record" </t>
   </si>
   <si>
-    <t>1. Navigate to url: "http://ft.captionconnect.com/#settingpage"
-2. Click on: "MenuBar"
+    <t>Should see result: "TitleProfile" is "Profile"</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Should see result: "TitleEdit" is "Edit Profile"</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Should see result: "TitleAccount" is "Accounts"</t>
+  </si>
+  <si>
+    <t>Should see result: "ProfileList" is "Name Test Autommation"</t>
+  </si>
+  <si>
+    <t>Should see result: "ListEmails" Subject is "[Automation] Welcome to Caption Connect"</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Pending: wrong EditFirtNameProfile element</t>
+  </si>
+  <si>
+    <t>Should see result: "NameUpdatedProfile" is "Name Test Auto Profile Updated"</t>
+  </si>
+  <si>
+    <t>Pending: wrong SubjectEmail element</t>
+  </si>
+  <si>
+    <t>2. Click on: "MenuBar"
 3. Click on: "Setting"
 4. Find on: "SettingPage" choose "Profiles" page</t>
   </si>
   <si>
-    <t>Should see result: "TitleProfile" is "Profile"</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>1. Navigate to url: "http://ft.captionconnect.com/#settingpage"
-2. Click on: "MenuBar"
+    <t>2. Click on: "MenuBar"
+3. Click on: "Setting"
+4. Find on: "SettingPage" choose "Accounts" page
+5. Click on: "AddAccount" button</t>
+  </si>
+  <si>
+    <t>2. Click on: "MenuBar"
 3. Click on: "Setting"
 4. Find on: "SettingPage" choose "Profiles" page
 5. Find on: "ProfileList" choose "Customer System Administrators" records</t>
   </si>
   <si>
-    <t>Should see result: "TitleEdit" is "Edit Profile"</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>Should see result: "TitleAccount" is "Accounts"</t>
-  </si>
-  <si>
-    <t>Should see result: "ProfileList" is "Name Test Autommation"</t>
-  </si>
-  <si>
-    <t>1. Navigate to url: "http://ft.captionconnect.com/#settingpage"
-2. Click on: "MenuBar"
+    <t>2. Click on: "MenuBar"
 3. Click on: "Setting"
 4. Find on: "SettingPage" choose "Profiles" page
 5. Click on: "AddProfile" button
@@ -238,27 +256,16 @@
 11. Wait: "3"</t>
   </si>
   <si>
-    <t>Should see result: "ListEmails" Subject is "[Automation] Welcome to Caption Connect"</t>
-  </si>
-  <si>
-    <t>1. Navigate to url: "http://ft.captionconnect.com/#settingpage"
-2. Click on: "MenuBar"
-3. Click on: "Setting"
-4. Find on: "SettingPage" choose "Accounts" page
-5. Click on: "AddAccount" button</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Pending: wrong EditFirtNameProfile element</t>
-  </si>
-  <si>
-    <t>Should see result: "NameUpdatedProfile" is "Name Test Auto Profile Updated"</t>
-  </si>
-  <si>
-    <t>1. Navigate to url: "http://ft.captionconnect.com/#settingpage"
-2. Click on: "MenuBar"
+    <t>2. Click on: "MenuBar"
+3. Click on: "MyProfile" button
+4. Click on: "EditProfile" button
+5. Input into: "EditFirtNameProfile" with value "Name Test Auto"
+6. Input into: "EditLastNameProfile" with value "Profile Updated"
+7. Click on: "OK" button
+8. Wait: "3"</t>
+  </si>
+  <si>
+    <t>2. Click on: "MenuBar"
 3. Click on: "Setting"
 4. Find on: "SettingPage" choose "Emails" page
 5. Click on: "AddEmail" button
@@ -267,20 +274,219 @@
 10. Click on: "OK" button</t>
   </si>
   <si>
-    <t>Pending: wrong EditLastNameProfiles element</t>
-  </si>
-  <si>
-    <t>1. Navigate to url: "http://ft.captionconnect.com/#settingpage"
-2. Click on: "MenuBar"
-3. Click on: "MyProfile" button
-4. Click on: "EditProfile" button
-5. Input into: "EditFirtNameProfile" with value "Name Test Auto"
-6. Input into: "EditLastNameProfile" with value "Profile Updated"
-7. Click on: "OK" button
-8. Wait: "3"</t>
-  </si>
-  <si>
-    <t>Pending: wrong SubjectEmail element</t>
+    <t>T C_001</t>
+  </si>
+  <si>
+    <t>T C_002</t>
+  </si>
+  <si>
+    <t>Should see result: "Level_4_List" contains "Test Auto Level_4"</t>
+  </si>
+  <si>
+    <t>1. Click on: "MenuBar"
+2. Wait: "3"
+3. Move to: "Level_4" options
+4. Click on: "Add" button
+5. Input into: "NameField" with value "Test Auto Level_4"
+6. Verify check-box: "Active"
+7. Input into: "Starts_DateTime" with value "25/10/2019"
+8. Input into: "TimeOfStartsDate" with value "9"
+9. Input into: "End_DateTime" with value "26/10/2019"
+10. Input into: "TimeOfEndDate" with value "9"
+11. Click on: "OK" button</t>
+  </si>
+  <si>
+    <t>Should see result: "Level_3_List" contains "Test Auto Level_3"</t>
+  </si>
+  <si>
+    <t>1. Click on: "MenuBar"
+2. Wait: "3"
+3. Move to: "Level_3" options
+4. Click on: "Add" button
+5. Input into: "NameField" with value "Test Auto Level_3"
+6. Click on drop-down: "Parent_Level" choose the firs options
+7. Verify check-box: "Active"
+8. Input into: "Starts_DateTime" with value "25/10/2019"
+9. Input into: "TimeOfStartsDate" with value "9"
+10. Input into: "End_DateTime" with value "26/10/2019"
+11. Input into: "TimeOfEndDate" with value "9"
+12. Click on: "OK" button</t>
+  </si>
+  <si>
+    <t>T C_003</t>
+  </si>
+  <si>
+    <t>T C_004</t>
+  </si>
+  <si>
+    <t>T C_005</t>
+  </si>
+  <si>
+    <t>T C_006</t>
+  </si>
+  <si>
+    <t>T C_007</t>
+  </si>
+  <si>
+    <t>T C_008</t>
+  </si>
+  <si>
+    <t>T C_009</t>
+  </si>
+  <si>
+    <t>T C_010</t>
+  </si>
+  <si>
+    <t>T C_011</t>
+  </si>
+  <si>
+    <t>T C_012</t>
+  </si>
+  <si>
+    <t>T C_013</t>
+  </si>
+  <si>
+    <t>T C_014</t>
+  </si>
+  <si>
+    <t>T C_015</t>
+  </si>
+  <si>
+    <t>T C_016</t>
+  </si>
+  <si>
+    <t>T C_017</t>
+  </si>
+  <si>
+    <t>T C_018</t>
+  </si>
+  <si>
+    <t>T C_019</t>
+  </si>
+  <si>
+    <t>T C_020</t>
+  </si>
+  <si>
+    <t>T C_021</t>
+  </si>
+  <si>
+    <t>T C_022</t>
+  </si>
+  <si>
+    <t>T C_023</t>
+  </si>
+  <si>
+    <t>T C_024</t>
+  </si>
+  <si>
+    <t>T C_025</t>
+  </si>
+  <si>
+    <t>T C_026</t>
+  </si>
+  <si>
+    <t>T C_027</t>
+  </si>
+  <si>
+    <t>T C_028</t>
+  </si>
+  <si>
+    <t>T C_029</t>
+  </si>
+  <si>
+    <t>T C_030</t>
+  </si>
+  <si>
+    <t>T C_031</t>
+  </si>
+  <si>
+    <t>T C_032</t>
+  </si>
+  <si>
+    <t>T C_033</t>
+  </si>
+  <si>
+    <t>T C_034</t>
+  </si>
+  <si>
+    <t>T C_035</t>
+  </si>
+  <si>
+    <t>T C_036</t>
+  </si>
+  <si>
+    <t>T C_037</t>
+  </si>
+  <si>
+    <t>T C_038</t>
+  </si>
+  <si>
+    <t>T C_039</t>
+  </si>
+  <si>
+    <t>T C_040</t>
+  </si>
+  <si>
+    <t>T C_041</t>
+  </si>
+  <si>
+    <t>T C_042</t>
+  </si>
+  <si>
+    <t>T C_043</t>
+  </si>
+  <si>
+    <t>T C_044</t>
+  </si>
+  <si>
+    <t>T C_045</t>
+  </si>
+  <si>
+    <t>T C_046</t>
+  </si>
+  <si>
+    <t>T C_047</t>
+  </si>
+  <si>
+    <t>T C_048</t>
+  </si>
+  <si>
+    <t>T C_049</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1. Click on: "MenuBar"
+2. Wait: "3"
+3. Move to: "Level_2" options
+4. Click on: "Add" button
+5. Input into: "NameField" with value "Test Auto Level_2"
+6. Click on drop-down: "Parent_Level" choose the firs options
+7. Verify check-box: "Active"
+8. Input into: "Starts_DateTime" with value "25/10/2019"
+9. Input into: "TimeOfStartsDate" with value "9"
+10. Input into: "End_DateTime" with value "26/10/2019"
+11. Input into: "TimeOfEndDate" with value "9"
+12. Click on: "OK" button</t>
+  </si>
+  <si>
+    <t>Should see result: "Level_2_List" contains "Test Auto Level_2"</t>
+  </si>
+  <si>
+    <t>Pending: wrong NameField element</t>
+  </si>
+  <si>
+    <t>Pending: wrong Level_2 element</t>
+  </si>
+  <si>
+    <t>Pending: wrong MenuBar element</t>
+  </si>
+  <si>
+    <t>Pending: wrong Level_4 element</t>
+  </si>
+  <si>
+    <t>Pending: wrong userName element</t>
   </si>
 </sst>
 </file>
@@ -291,7 +497,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="254">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,11 +616,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -499,6 +700,739 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
@@ -637,8 +1571,228 @@
       <sz val="11.0"/>
       <color indexed="9"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,7 +1853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -723,13 +1877,38 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="48"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -744,12 +1923,42 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
@@ -764,12 +1973,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
@@ -784,12 +1993,42 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
@@ -804,16 +2043,56 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="148">
     <border>
       <left/>
       <right/>
@@ -1167,21 +2446,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1254,9 +2518,7 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1284,7 +2546,22 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1304,6 +2581,643 @@
         <color indexed="8"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <bottom style="thin"/>
@@ -1654,9 +3568,9 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="314">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1779,88 +3693,397 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="9" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="4" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="21" numFmtId="0" xfId="5">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="5">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="28" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="3" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="3" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="10" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="10" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="10" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="10" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="11" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="10" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="12" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="12" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="12" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="12" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="13" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="14" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="15" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="15" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="15" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="36" numFmtId="0" xfId="5">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="10" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="10" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="10" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="11" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="12" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="12" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="12" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="12" fontId="31" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="10" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="13" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="10" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="12" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="14" fontId="34" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="14" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="14" fontId="36" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="14" fontId="37" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="15" fontId="38" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="14" fontId="39" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="7" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="4" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="16" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="17" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="0" numFmtId="0" xfId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="39" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="18" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="19" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="20" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="42" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="0" numFmtId="0" xfId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="43" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1871,6 +4094,18 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="7" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="2" fontId="7" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="2" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1895,91 +4130,359 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="7" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="2" fontId="7" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="2" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="17" fontId="40" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="17" fontId="41" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="17" fontId="42" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="17" fontId="43" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="19" fontId="44" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="17" fontId="45" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="17" fontId="46" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="21" fontId="47" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="21" fontId="48" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="21" fontId="49" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="21" fontId="50" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="23" fontId="51" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="21" fontId="52" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="21" fontId="53" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="25" fontId="54" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="25" fontId="55" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="25" fontId="56" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="25" fontId="57" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="27" fontId="58" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="29" fontId="59" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="29" fontId="60" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="29" fontId="61" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="29" fontId="62" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="31" fontId="63" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="76" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="7" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="148" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="149" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="151" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="22" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="164" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="169" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="170" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="172" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="181" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="21" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="51" fillId="24" fontId="185" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="26" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="187" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="188" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="190" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="191" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="194" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="196" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="197" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="199" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="200" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="201" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="202" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="203" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="204" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="205" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="214" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="216" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="217" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="218" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="219" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="220" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="221" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="223" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="226" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="227" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="229" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="230" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="231" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="232" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="233" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="234" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="28" fontId="235" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="75" fillId="30" fontId="236" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="32" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="34" fontId="238" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="34" fontId="239" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="91" fillId="36" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="91" fillId="38" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="99" fillId="40" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="107" fillId="42" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="115" fillId="44" fontId="244" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="123" fillId="46" fontId="245" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="123" fillId="48" fontId="246" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="131" fillId="50" fontId="247" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="52" fontId="248" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="54" fontId="249" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="54" fontId="250" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="56" borderId="147" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="58" borderId="147" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="58" borderId="147" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,7 +4494,27 @@
     <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="標準 2 4" xfId="4"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2304,7 +4827,7 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="130" zoomScaleSheetLayoutView="130">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2341,32 +4864,32 @@
       <c r="G3" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="4" s="13" spans="2:7" thickBot="1" thickTop="1">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="5" s="13" spans="2:7" thickTop="1">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="77"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="180"/>
     </row>
     <row customFormat="1" ht="13.8" r="6" s="13" spans="2:7">
       <c r="B6" s="17">
@@ -2542,7 +5065,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E11"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="13.8"/>
@@ -2568,14 +5091,14 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15.6" r="1" s="4" spans="1:15" thickTop="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="85" t="s">
+      <c r="A1" s="188"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
@@ -2585,35 +5108,35 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
     </row>
     <row customFormat="1" customHeight="1" ht="31.5" r="3" s="6" spans="1:15">
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
     </row>
     <row customFormat="1" r="4" s="6" spans="1:15">
       <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="191">
         <v>43705</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
     </row>
     <row customFormat="1" r="5" s="6" spans="1:15">
       <c r="A5" s="7"/>
@@ -2624,15 +5147,15 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
@@ -2642,11 +5165,11 @@
       <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="88" t="str">
+      <c r="A8" s="183" t="str">
         <f>Legend!A2</f>
         <v>Passed</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="29" t="e">
         <f>COUNTIF(#REF!, "PASSED")</f>
         <v>#REF!</v>
@@ -2658,11 +5181,11 @@
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="88" t="str">
+      <c r="A9" s="183" t="str">
         <f>Legend!A3</f>
         <v>Failed</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="29" t="e">
         <f>COUNTIF(#REF!, "FAILED")</f>
         <v>#REF!</v>
@@ -2674,11 +5197,11 @@
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="88" t="str">
+      <c r="A10" s="183" t="str">
         <f>Legend!A6</f>
         <v>Pending</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="29" t="e">
         <f>COUNTIF(#REF!, "PENDING")</f>
         <v>#REF!</v>
@@ -2690,10 +5213,10 @@
       <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="29" t="e">
         <f>SUM(C8:C10)</f>
         <v>#REF!</v>
@@ -2706,17 +5229,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2727,8 +5250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScale="83">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0" zoomScale="83">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2771,127 +5294,129 @@
       <c r="C2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row ht="52.8" r="3" spans="1:6">
+      <c r="D2" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="39.6" r="3" spans="1:6">
       <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="52.8" r="4" spans="1:6">
+      <c r="A4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="B4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="57.6" r="5" spans="1:6">
+      <c r="A5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row ht="66" r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
+      <c r="B5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="D5" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row ht="72" r="5" spans="1:6">
-      <c r="A5" s="37" t="s">
+      <c r="E5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="144" r="6" spans="1:6">
+      <c r="A6" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row ht="158.4" r="6" spans="1:6">
-      <c r="A6" s="51" t="s">
+      <c r="D6" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="100.8" r="7" spans="1:6">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row ht="100.8" r="8" spans="1:6">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row ht="115.2" r="7" spans="1:6">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row ht="115.2" r="8" spans="1:6">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="69" t="s">
-        <v>40</v>
-      </c>
       <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2899,7 +5424,7 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule dxfId="2" priority="2" type="duplicateValues"/>
+    <cfRule dxfId="4" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
@@ -2911,7 +5436,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2964,10 +5489,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>40</v>
@@ -2986,7 +5511,7 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule dxfId="1" priority="1" type="duplicateValues"/>
+    <cfRule dxfId="3" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2994,67 +5519,2209 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="8.33203125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="66.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="43.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="73" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row ht="57.6" r="2" spans="1:4">
       <c r="A2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="48"/>
-    </row>
-    <row r="3" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="311" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="3" spans="1:4">
+      <c r="A3" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="312" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="158.4" r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="313" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="158.4" r="5" spans="1:4">
+      <c r="B5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row ht="158.4" r="6" spans="1:4">
+      <c r="B6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row ht="158.4" r="7" spans="1:4">
+      <c r="B7" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="8" spans="1:4">
+      <c r="B8" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="9" spans="1:4">
+      <c r="B9" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="10" spans="1:4">
+      <c r="B10" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="11" spans="1:4">
+      <c r="B11" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="12" spans="1:4">
+      <c r="B12" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="13" spans="1:4">
+      <c r="B13" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="14" spans="1:4">
+      <c r="B14" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="15" spans="1:4">
+      <c r="B15" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="16" spans="1:4">
+      <c r="B16" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="17" spans="2:4">
+      <c r="B17" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="18" spans="2:4">
+      <c r="B18" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="19" spans="2:4">
+      <c r="B19" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="20" spans="2:4">
+      <c r="B20" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="21" spans="2:4">
+      <c r="B21" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="22" spans="2:4">
+      <c r="B22" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="23" spans="2:4">
+      <c r="B23" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="24" spans="2:4">
+      <c r="B24" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="25" spans="2:4">
+      <c r="B25" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="26" spans="2:4">
+      <c r="B26" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="27" spans="2:4">
+      <c r="B27" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="28" spans="2:4">
+      <c r="B28" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="29" spans="2:4">
+      <c r="B29" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="30" spans="2:4">
+      <c r="B30" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="114" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="31" spans="2:4">
+      <c r="B31" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="32" spans="2:4">
+      <c r="B32" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="33" spans="2:4">
+      <c r="B33" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="34" spans="2:4">
+      <c r="B34" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="35" spans="2:4">
+      <c r="B35" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="36" spans="2:4">
+      <c r="B36" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="120" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="37" spans="2:4">
+      <c r="B37" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="38" spans="2:4">
+      <c r="B38" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="39" spans="2:4">
+      <c r="B39" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="123" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="40" spans="2:4">
+      <c r="B40" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="41" spans="2:4">
+      <c r="B41" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="125" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="42" spans="2:4">
+      <c r="B42" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row ht="158.4" r="43" spans="2:4">
+      <c r="B43" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="158.4" r="44" spans="2:4">
+      <c r="B44" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="45" spans="2:4">
+      <c r="B45" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="46" spans="2:4">
+      <c r="B46" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="47" spans="2:4">
+      <c r="B47" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="48" spans="2:4">
+      <c r="B48" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="49" spans="2:4">
+      <c r="B49" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="158.4" r="50" spans="2:4">
+      <c r="B50" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="72"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule dxfId="2" priority="1" type="duplicateValues"/>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="66.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="43.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="57.6" r="2" spans="1:4">
+      <c r="A2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="3" spans="1:4">
       <c r="A3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="4" spans="1:4">
+      <c r="A4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="5" spans="1:4">
+      <c r="A5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="6" spans="1:4">
+      <c r="A6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="7" spans="1:4">
+      <c r="A7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="8" spans="1:4">
+      <c r="A8" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="9" spans="1:4">
+      <c r="A9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="135" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="10" spans="1:4">
+      <c r="A10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="136" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="11" spans="1:4">
+      <c r="A11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="12" spans="1:4">
+      <c r="A12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="13" spans="1:4">
+      <c r="A13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="14" spans="1:4">
+      <c r="A14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="15" spans="1:4">
+      <c r="A15" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="16" spans="1:4">
+      <c r="A16" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="17" spans="1:4">
+      <c r="A17" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="18" spans="1:4">
+      <c r="A18" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="19" spans="1:4">
+      <c r="A19" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="145" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="20" spans="1:4">
+      <c r="A20" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="146" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="21" spans="1:4">
+      <c r="A21" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="22" spans="1:4">
+      <c r="A22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="23" spans="1:4">
+      <c r="A23" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="149" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="24" spans="1:4">
+      <c r="A24" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="25" spans="1:4">
+      <c r="A25" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="151" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="26" spans="1:4">
+      <c r="A26" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="152" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="27" spans="1:4">
+      <c r="A27" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="153" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="28" spans="1:4">
+      <c r="A28" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="154" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="29" spans="1:4">
+      <c r="A29" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="155" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="30" spans="1:4">
+      <c r="A30" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="156" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="31" spans="1:4">
+      <c r="A31" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="32" spans="1:4">
+      <c r="A32" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="158" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="33" spans="1:4">
+      <c r="A33" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="159" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="34" spans="1:4">
+      <c r="A34" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="160" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="35" spans="1:4">
+      <c r="A35" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="161" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="36" spans="1:4">
+      <c r="A36" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="162" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="37" spans="1:4">
+      <c r="A37" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="163" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="38" spans="1:4">
+      <c r="A38" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="164" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="39" spans="1:4">
+      <c r="A39" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="165" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="40" spans="1:4">
+      <c r="A40" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="166" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="41" spans="1:4">
+      <c r="A41" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="167" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="42" spans="1:4">
+      <c r="A42" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="168" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="43" spans="1:4">
+      <c r="A43" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="169" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="44" spans="1:4">
+      <c r="A44" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="45" spans="1:4">
+      <c r="A45" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="171" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="46" spans="1:4">
+      <c r="A46" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="172" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="47" spans="1:4">
+      <c r="A47" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="173" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="48" spans="1:4">
+      <c r="A48" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="174" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="49" spans="1:4">
+      <c r="A49" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="175" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="50" spans="1:4">
+      <c r="A50" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="176" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="37"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="0" priority="3" type="duplicateValues"/>
+    <cfRule dxfId="1" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink location="settingpage" r:id="rId1" ref="B2"/>
-    <hyperlink location="settingpage" r:id="rId2" ref="B3"/>
-  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row ht="57.6" r="2" spans="1:5">
+      <c r="A2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="247" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="3" spans="1:5">
+      <c r="A3" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="248" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="4" spans="1:5">
+      <c r="A4" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="198" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="249" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="5" spans="1:5">
+      <c r="A5" s="177" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="199" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="250" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="6" spans="1:5">
+      <c r="A6" s="177" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="200" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="251" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="7" spans="1:5">
+      <c r="A7" s="177" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="201" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="252" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="8" spans="1:5">
+      <c r="A8" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="202" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="253" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="9" spans="1:5">
+      <c r="A9" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="203" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="254" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="10" spans="1:5">
+      <c r="A10" s="177" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="204" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="255" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="11" spans="1:5">
+      <c r="A11" s="177" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="205" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="256" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="12" spans="1:5">
+      <c r="A12" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="206" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="257" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="13" spans="1:5">
+      <c r="A13" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="207" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="258" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="14" spans="1:5">
+      <c r="A14" s="177" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="208" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="259" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="15" spans="1:5">
+      <c r="A15" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="209" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="260" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="16" spans="1:5">
+      <c r="A16" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="210" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="261" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="17" spans="1:5">
+      <c r="A17" s="177" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="211" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="262" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="18" spans="1:5">
+      <c r="A18" s="177" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="263" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="19" spans="1:5">
+      <c r="A19" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="212" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="264" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="20" spans="1:5">
+      <c r="A20" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="213" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="265" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="21" spans="1:5">
+      <c r="A21" s="177" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="266" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="22" spans="1:5">
+      <c r="A22" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="215" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="267" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="23" spans="1:5">
+      <c r="A23" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="216" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="268" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="24" spans="1:5">
+      <c r="A24" s="177" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="217" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="269" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="25" spans="1:5">
+      <c r="A25" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="218" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="270" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="26" spans="1:5">
+      <c r="A26" s="177" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="219" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="271" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="27" spans="1:5">
+      <c r="A27" s="177" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="272" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="28" spans="1:5">
+      <c r="A28" s="177" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="221" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="273" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="29" spans="1:5">
+      <c r="A29" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="222" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="274" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="30" spans="1:5">
+      <c r="A30" s="177" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="223" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="275" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="31" spans="1:5">
+      <c r="A31" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="224" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="276" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="32" spans="1:5">
+      <c r="A32" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="225" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="277" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="33" spans="1:5">
+      <c r="A33" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="226" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="278" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="34" spans="1:5">
+      <c r="A34" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="227" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="279" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="35" spans="1:5">
+      <c r="A35" s="177" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="228" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="280" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="36" spans="1:5">
+      <c r="A36" s="177" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="229" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="281" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="37" spans="1:5">
+      <c r="A37" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="230" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="282" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="38" spans="1:5">
+      <c r="A38" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="231" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="283" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="39" spans="1:5">
+      <c r="A39" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="232" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="284" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="40" spans="1:5">
+      <c r="A40" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="233" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="285" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="41" spans="1:5">
+      <c r="A41" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="234" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="286" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="42" spans="1:5">
+      <c r="A42" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="235" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="287" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="43" spans="1:5">
+      <c r="A43" s="177" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="236" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="288" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="44" spans="1:5">
+      <c r="A44" s="177" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="237" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="289" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="45" spans="1:5">
+      <c r="A45" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="238" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="290" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="46" spans="1:5">
+      <c r="A46" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="239" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="291" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="47" spans="1:5">
+      <c r="A47" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="240" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="292" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="48" spans="1:5">
+      <c r="A48" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="241" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="293" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="49" spans="1:5">
+      <c r="A49" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="242" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="294" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="172.8" r="50" spans="1:5">
+      <c r="A50" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="243" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="295" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
